--- a/Test_leo/Dataframe_best-values_2_splits_ref.xlsx
+++ b/Test_leo/Dataframe_best-values_2_splits_ref.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projet data sciences\Projet_data\Test_leo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DDEB6BB-D967-4006-A771-FFAD94B92B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED113009-2980-4E62-8019-A5C2D26E1DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="split_1" sheetId="1" r:id="rId1"/>
     <sheet name="split_2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">split_1!$A$1:$A$50</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -129,6 +132,1269 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>split_1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>split_1!$H$2:$H$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.91100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0211-4216-B057-78D2CB3C1E00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>split_1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1487</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>split_1!$A$3:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3629</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4643</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4887</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4889</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5392</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5651</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5772</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6273</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6274</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7032</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7037</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7281</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7286</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7409</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7410</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7413</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7534</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7536</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8668</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8669</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8670</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8672</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8793</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9676</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9809</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9928</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9929</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10053</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11063</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11188</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11190</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11191</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12321</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12323</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12447</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12448</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12454</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0211-4216-B057-78D2CB3C1E00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468870448"/>
+        <c:axId val="468874928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468870448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468874928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468874928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468870448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD29AF4-4D76-C7FA-FE02-6CC609C03235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,11 +1720,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="H1:H50 A2:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -494,34 +1764,34 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>3379</v>
+        <v>1487</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0.3</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.92200000000000004</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="G2">
-        <v>0.93300000000000005</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="H2">
-        <v>0.91100000000000003</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="I2">
-        <v>0.94399999999999995</v>
+        <v>0.95</v>
       </c>
       <c r="J2">
-        <v>0.94199999999999995</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -529,34 +1799,34 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>6273</v>
+        <v>2245</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>0.3</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0.92200000000000004</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="G3">
-        <v>0.93300000000000005</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="H3">
-        <v>0.91100000000000003</v>
+        <v>0.91</v>
       </c>
       <c r="I3">
-        <v>0.94399999999999995</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="J3">
-        <v>0.94199999999999995</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -564,34 +1834,34 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1487</v>
+        <v>2374</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D4">
         <v>0.3</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>0.92800000000000005</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="G4">
         <v>0.90800000000000003</v>
       </c>
       <c r="H4">
-        <v>0.94799999999999995</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="I4">
-        <v>0.95</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="J4">
-        <v>0.94099999999999995</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -599,13 +1869,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>9929</v>
+        <v>3377</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>0.3</v>
@@ -614,19 +1884,19 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>0.91800000000000004</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="G5">
-        <v>0.93300000000000005</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="H5">
-        <v>0.90300000000000002</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I5">
-        <v>0.94199999999999995</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="J5">
-        <v>0.94</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -634,34 +1904,34 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4888</v>
+        <v>3379</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <v>0.3</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>0.92400000000000004</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="G6">
-        <v>0.90800000000000003</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="H6">
-        <v>0.94</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="I6">
-        <v>0.94699999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="J6">
-        <v>0.93799999999999994</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -669,10 +1939,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2245</v>
+        <v>3505</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -684,19 +1954,19 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>0.91700000000000004</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="G7">
-        <v>0.92500000000000004</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="H7">
-        <v>0.91</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="I7">
-        <v>0.94199999999999995</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="J7">
-        <v>0.93799999999999994</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -704,34 +1974,34 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6274</v>
+        <v>3629</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D8">
         <v>0.3</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.91700000000000004</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="G8">
-        <v>0.92500000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="H8">
-        <v>0.91</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="I8">
-        <v>0.94199999999999995</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="J8">
-        <v>0.93799999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -739,34 +2009,34 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>6021</v>
+        <v>4262</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>0.3</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>0.91700000000000004</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="G9">
-        <v>0.91700000000000004</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="H9">
-        <v>0.91700000000000004</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I9">
-        <v>0.94199999999999995</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="J9">
-        <v>0.93600000000000005</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -774,34 +2044,34 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>5392</v>
+        <v>4643</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <v>0.3</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>0.91700000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="G10">
-        <v>0.91700000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="H10">
-        <v>0.91700000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="I10">
-        <v>0.94199999999999995</v>
+        <v>0.93</v>
       </c>
       <c r="J10">
-        <v>0.93600000000000005</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -809,34 +2079,34 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>6151</v>
+        <v>4763</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>0.3</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.91400000000000003</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="G11">
-        <v>0.92500000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="H11">
-        <v>0.90200000000000002</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="I11">
-        <v>0.93899999999999995</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="J11">
-        <v>0.93500000000000005</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -844,10 +2114,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7409</v>
+        <v>4887</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>200</v>
@@ -856,22 +2126,22 @@
         <v>0.3</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.91400000000000003</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="G12">
+        <v>0.9</v>
+      </c>
+      <c r="H12">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="I12">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="J12">
         <v>0.92500000000000004</v>
-      </c>
-      <c r="H12">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="I12">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="J12">
-        <v>0.93500000000000005</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -879,10 +2149,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>8668</v>
+        <v>4888</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>200</v>
@@ -894,19 +2164,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.91600000000000004</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G13">
         <v>0.90800000000000003</v>
       </c>
       <c r="H13">
-        <v>0.92400000000000004</v>
+        <v>0.94</v>
       </c>
       <c r="I13">
-        <v>0.94199999999999995</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="J13">
-        <v>0.93400000000000005</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -914,34 +2184,34 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7536</v>
+        <v>4889</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D14">
         <v>0.3</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.91300000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="G14">
-        <v>0.91700000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="H14">
-        <v>0.90900000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="I14">
-        <v>0.93899999999999995</v>
+        <v>0.93</v>
       </c>
       <c r="J14">
-        <v>0.93400000000000005</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -949,34 +2219,34 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2374</v>
+        <v>5392</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C15">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>0.3</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.91600000000000004</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="G15">
-        <v>0.90800000000000003</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="H15">
-        <v>0.92400000000000004</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="I15">
         <v>0.94199999999999995</v>
       </c>
       <c r="J15">
-        <v>0.93400000000000005</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1019,34 +2289,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>12448</v>
+        <v>5772</v>
       </c>
       <c r="B17">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="C17">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <v>0.3</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>0.90900000000000003</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="G17">
-        <v>0.91700000000000004</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="H17">
-        <v>0.90200000000000002</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I17">
         <v>0.93600000000000005</v>
       </c>
       <c r="J17">
-        <v>0.93100000000000005</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1054,10 +2324,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7281</v>
+        <v>6021</v>
       </c>
       <c r="B18">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>100</v>
@@ -1069,19 +2339,19 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.90900000000000003</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="G18">
         <v>0.91700000000000004</v>
       </c>
       <c r="H18">
-        <v>0.90200000000000002</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="I18">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="J18">
         <v>0.93600000000000005</v>
-      </c>
-      <c r="J18">
-        <v>0.93100000000000005</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1089,10 +2359,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>3629</v>
+        <v>6151</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>200</v>
@@ -1101,22 +2371,22 @@
         <v>0.3</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>0.91100000000000003</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="G19">
-        <v>0.9</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="H19">
-        <v>0.92300000000000004</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="I19">
         <v>0.93899999999999995</v>
       </c>
       <c r="J19">
-        <v>0.93</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1124,34 +2394,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7032</v>
+        <v>6273</v>
       </c>
       <c r="B20">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="D20">
         <v>0.3</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="G20">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="H20">
         <v>0.91100000000000003</v>
       </c>
-      <c r="G20">
-        <v>0.9</v>
-      </c>
-      <c r="H20">
-        <v>0.92300000000000004</v>
-      </c>
       <c r="I20">
-        <v>0.93899999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="J20">
-        <v>0.93</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1159,34 +2429,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>4262</v>
+        <v>6274</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D21">
         <v>0.3</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.90800000000000003</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="G21">
-        <v>0.90800000000000003</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="H21">
-        <v>0.90800000000000003</v>
+        <v>0.91</v>
       </c>
       <c r="I21">
-        <v>0.93600000000000005</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="J21">
-        <v>0.92900000000000005</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1194,34 +2464,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>11063</v>
+        <v>7032</v>
       </c>
       <c r="B22">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D22">
         <v>0.3</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>0.90800000000000003</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="G22">
-        <v>0.90800000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="H22">
-        <v>0.90800000000000003</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="I22">
-        <v>0.93600000000000005</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="J22">
-        <v>0.92900000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1229,34 +2499,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>9928</v>
+        <v>7037</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>0.3</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>0.90800000000000003</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="G23">
-        <v>0.90800000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="H23">
         <v>0.90800000000000003</v>
       </c>
       <c r="I23">
-        <v>0.93600000000000005</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="J23">
-        <v>0.92900000000000005</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1264,34 +2534,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>3377</v>
+        <v>7281</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C24">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>0.3</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.90800000000000003</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="G24">
-        <v>0.90800000000000003</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="H24">
-        <v>0.90800000000000003</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="I24">
         <v>0.93600000000000005</v>
       </c>
       <c r="J24">
-        <v>0.92900000000000005</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1299,34 +2569,34 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>8670</v>
+        <v>7286</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C25">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>0.3</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>0.90800000000000003</v>
       </c>
       <c r="G25">
-        <v>0.90800000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="H25">
-        <v>0.90800000000000003</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="I25">
         <v>0.93600000000000005</v>
       </c>
       <c r="J25">
-        <v>0.92900000000000005</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1334,34 +2604,34 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>5772</v>
+        <v>7409</v>
       </c>
       <c r="B26">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D26">
         <v>0.3</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.90800000000000003</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="G26">
-        <v>0.90800000000000003</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="H26">
-        <v>0.90800000000000003</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="I26">
-        <v>0.93600000000000005</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="J26">
-        <v>0.92900000000000005</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -1369,10 +2639,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>11190</v>
+        <v>7410</v>
       </c>
       <c r="B27">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>200</v>
@@ -1384,19 +2654,19 @@
         <v>4</v>
       </c>
       <c r="F27">
-        <v>0.90800000000000003</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="G27">
-        <v>0.90800000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="H27">
         <v>0.90800000000000003</v>
       </c>
       <c r="I27">
-        <v>0.93600000000000005</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="J27">
-        <v>0.92900000000000005</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -1404,19 +2674,19 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>10053</v>
+        <v>7413</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C28">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D28">
         <v>0.3</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F28">
         <v>0.90500000000000003</v>
@@ -1439,34 +2709,34 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>12447</v>
+        <v>7534</v>
       </c>
       <c r="B29">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="C29">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D29">
         <v>0.3</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.90800000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="G29">
         <v>0.9</v>
       </c>
       <c r="H29">
-        <v>0.91500000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="I29">
-        <v>0.93600000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="J29">
-        <v>0.92700000000000005</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -1474,34 +2744,34 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>9676</v>
+        <v>7536</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C30">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="D30">
         <v>0.3</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>0.90800000000000003</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="G30">
-        <v>0.9</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="H30">
-        <v>0.91500000000000004</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I30">
-        <v>0.93600000000000005</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="J30">
-        <v>0.92700000000000005</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -1509,10 +2779,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>11188</v>
+        <v>8668</v>
       </c>
       <c r="B31">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="C31">
         <v>200</v>
@@ -1524,19 +2794,19 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>0.90500000000000003</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="G31">
         <v>0.90800000000000003</v>
       </c>
       <c r="H31">
-        <v>0.90100000000000002</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="I31">
-        <v>0.93300000000000005</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="J31">
-        <v>0.92700000000000005</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -1544,10 +2814,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7413</v>
+        <v>8669</v>
       </c>
       <c r="B32">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C32">
         <v>200</v>
@@ -1556,22 +2826,22 @@
         <v>0.3</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.90500000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="G32">
-        <v>0.90800000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="H32">
-        <v>0.90100000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I32">
-        <v>0.93300000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="J32">
-        <v>0.92700000000000005</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -1579,34 +2849,34 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7286</v>
+        <v>8670</v>
       </c>
       <c r="B33">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D33">
         <v>0.3</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <v>0.90800000000000003</v>
       </c>
       <c r="G33">
-        <v>0.9</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="H33">
-        <v>0.91500000000000004</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I33">
         <v>0.93600000000000005</v>
       </c>
       <c r="J33">
-        <v>0.92700000000000005</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -1614,34 +2884,34 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>3505</v>
+        <v>8672</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C34">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D34">
         <v>0.3</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34">
-        <v>0.90500000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="G34">
-        <v>0.90800000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="H34">
-        <v>0.90100000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I34">
-        <v>0.93300000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="J34">
-        <v>0.92700000000000005</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -1649,34 +2919,34 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>4763</v>
+        <v>8793</v>
       </c>
       <c r="B35">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C35">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D35">
         <v>0.3</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.90800000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="G35">
         <v>0.9</v>
       </c>
       <c r="H35">
-        <v>0.91500000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="I35">
-        <v>0.93600000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="J35">
-        <v>0.92700000000000005</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -1684,34 +2954,34 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>12321</v>
+        <v>9676</v>
       </c>
       <c r="B36">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C36">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D36">
         <v>0.3</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>0.90400000000000003</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="G36">
         <v>0.9</v>
       </c>
       <c r="H36">
-        <v>0.90800000000000003</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="I36">
-        <v>0.93300000000000005</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="J36">
-        <v>0.92500000000000004</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -1719,19 +2989,19 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7410</v>
+        <v>9809</v>
       </c>
       <c r="B37">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C37">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D37">
         <v>0.3</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F37">
         <v>0.90400000000000003</v>
@@ -1754,34 +3024,34 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>9809</v>
+        <v>9928</v>
       </c>
       <c r="B38">
         <v>100</v>
       </c>
       <c r="C38">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D38">
         <v>0.3</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>0.90400000000000003</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="G38">
-        <v>0.9</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="H38">
         <v>0.90800000000000003</v>
       </c>
       <c r="I38">
-        <v>0.93300000000000005</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="J38">
-        <v>0.92500000000000004</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -1789,34 +3059,34 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7037</v>
+        <v>9929</v>
       </c>
       <c r="B39">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C39">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D39">
         <v>0.3</v>
       </c>
       <c r="E39">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F39">
-        <v>0.90400000000000003</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="G39">
-        <v>0.9</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="H39">
-        <v>0.90800000000000003</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="I39">
-        <v>0.93300000000000005</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="J39">
-        <v>0.92500000000000004</v>
+        <v>0.94</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -1824,13 +3094,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>4887</v>
+        <v>10053</v>
       </c>
       <c r="B40">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C40">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D40">
         <v>0.3</v>
@@ -1839,19 +3109,19 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>0.90400000000000003</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="G40">
-        <v>0.9</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="H40">
-        <v>0.90800000000000003</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="I40">
         <v>0.93300000000000005</v>
       </c>
       <c r="J40">
-        <v>0.92500000000000004</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -1859,34 +3129,34 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>11191</v>
+        <v>11063</v>
       </c>
       <c r="B41">
         <v>300</v>
       </c>
       <c r="C41">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D41">
         <v>0.3</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>0.9</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="G41">
-        <v>0.9</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="H41">
-        <v>0.9</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I41">
-        <v>0.93</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="J41">
-        <v>0.92300000000000004</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -1894,34 +3164,34 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>12323</v>
+        <v>11188</v>
       </c>
       <c r="B42">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C42">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D42">
         <v>0.3</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>0.9</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="G42">
-        <v>0.9</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="H42">
-        <v>0.9</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="I42">
-        <v>0.93</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="J42">
-        <v>0.92300000000000004</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -1929,10 +3199,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>12454</v>
+        <v>11190</v>
       </c>
       <c r="B43">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C43">
         <v>200</v>
@@ -1941,22 +3211,22 @@
         <v>0.3</v>
       </c>
       <c r="E43">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>0.9</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="G43">
-        <v>0.9</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="H43">
-        <v>0.9</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I43">
-        <v>0.93</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="J43">
-        <v>0.92300000000000004</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -1964,10 +3234,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>8669</v>
+        <v>11191</v>
       </c>
       <c r="B44">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="C44">
         <v>200</v>
@@ -1976,7 +3246,7 @@
         <v>0.3</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F44">
         <v>0.9</v>
@@ -1999,13 +3269,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>8793</v>
+        <v>12321</v>
       </c>
       <c r="B45">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="C45">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D45">
         <v>0.3</v>
@@ -2014,19 +3284,19 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>0.9</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="G45">
         <v>0.9</v>
       </c>
       <c r="H45">
-        <v>0.9</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I45">
-        <v>0.93</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="J45">
-        <v>0.92300000000000004</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -2034,19 +3304,19 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>8672</v>
+        <v>12323</v>
       </c>
       <c r="B46">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="C46">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D46">
         <v>0.3</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F46">
         <v>0.9</v>
@@ -2069,10 +3339,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>4889</v>
+        <v>12447</v>
       </c>
       <c r="B47">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="C47">
         <v>200</v>
@@ -2081,22 +3351,22 @@
         <v>0.3</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>0.9</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="G47">
         <v>0.9</v>
       </c>
       <c r="H47">
-        <v>0.9</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="I47">
-        <v>0.93</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="J47">
-        <v>0.92300000000000004</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -2104,13 +3374,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7534</v>
+        <v>12448</v>
       </c>
       <c r="B48">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="C48">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D48">
         <v>0.3</v>
@@ -2119,19 +3389,19 @@
         <v>2</v>
       </c>
       <c r="F48">
-        <v>0.9</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="G48">
-        <v>0.9</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="H48">
-        <v>0.9</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="I48">
-        <v>0.93</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="J48">
-        <v>0.92300000000000004</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -2139,19 +3409,19 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>4643</v>
+        <v>12454</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="C49">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="D49">
         <v>0.3</v>
       </c>
       <c r="E49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49">
         <v>0.9</v>
@@ -2208,6 +3478,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A50" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K50">
+      <sortCondition ref="A1:A50"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A1">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -2233,6 +3508,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2240,8 +3516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K665"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
